--- a/testData/results/dfs_gcc_O0_hello_gcc_O0_result.xlsx
+++ b/testData/results/dfs_gcc_O0_hello_gcc_O0_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,11 +577,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub_40103f</t>
+          <t>sub_40105f</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -690,14 +690,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sub_4010f9</t>
+          <t>sub_4010b9</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8705882352941178</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
@@ -711,14 +711,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sub_401139</t>
+          <t>sub_4010f9</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -766,40 +766,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frame_dummy</t>
+          <t>sub_401179</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>frame_dummy</t>
+          <t>sub_401139</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_fini</t>
+          <t>frame_dummy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>_fini</t>
+          <t>frame_dummy</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -808,11 +808,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>_fini</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>_fini</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>finalScore</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.6558746835800391</v>
+      <c r="B20" t="n">
+        <v>0.6481047156899342</v>
       </c>
     </row>
   </sheetData>
